--- a/research-paper/data source/租屋痛苦指數.xlsx
+++ b/research-paper/data source/租屋痛苦指數.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CD36E5-7D95-46C3-B3C2-E06F861E1020}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B4056-5842-4502-A2E2-23D4BF03F9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{24559ADC-AFC1-4B83-BC97-1AF1C617F3C9}"/>
   </bookViews>
@@ -285,7 +285,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18163517739628426"/>
+          <c:y val="9.7313753169602848E-2"/>
+          <c:w val="0.76799991642927035"/>
+          <c:h val="0.77324552889867582"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -677,6 +687,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1232,13 +1243,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>463549</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>418352</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>119529</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1264,6 +1275,68 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.04267</cdr:x>
+      <cdr:y>0.92733</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.95953</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="文字方塊 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F42A7B-CB51-446B-B13A-FC7F27934BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="220594" y="3788427"/>
+          <a:ext cx="4739503" cy="296864"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:rPr>
+            <a:t>*租屋痛苦指數為</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>衡量租金超過居民合理居住負擔程度的一種測算指標</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+            <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,7 +1639,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/research-paper/data source/租屋痛苦指數.xlsx
+++ b/research-paper/data source/租屋痛苦指數.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3B4056-5842-4502-A2E2-23D4BF03F9DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F8296-4629-4F06-88F9-524FA30E1C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{24559ADC-AFC1-4B83-BC97-1AF1C617F3C9}"/>
   </bookViews>
@@ -239,6 +239,9 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
@@ -246,6 +249,9 @@
             </a:r>
             <a:r>
               <a:rPr lang="zh-TW" altLang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
                 <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
               </a:rPr>
@@ -290,10 +296,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18163517739628426"/>
+          <c:x val="0.15952375517335701"/>
           <c:y val="9.7313753169602848E-2"/>
-          <c:w val="0.76799991642927035"/>
-          <c:h val="0.77324552889867582"/>
+          <c:w val="0.7729135658121431"/>
+          <c:h val="0.72380788041508992"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -325,6 +331,43 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7B5CE61E-7EA8-4885-B83F-051470DF8350}" type="VALUE">
+                      <a:rPr lang="en-US" altLang="zh-TW" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[值]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-272B-44F0-9AFD-224308CF6D67}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1248,8 +1291,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>119529</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>89646</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>97117</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1281,11 +1324,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.04267</cdr:x>
-      <cdr:y>0.92733</cdr:y>
+      <cdr:x>0.06146</cdr:x>
+      <cdr:y>0.87914</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.95953</cdr:x>
+      <cdr:x>0.97832</cdr:x>
       <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -1301,8 +1344,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="220594" y="3788427"/>
-          <a:ext cx="4739503" cy="296864"/>
+          <a:off x="317691" y="3979036"/>
+          <a:ext cx="4739500" cy="547020"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1328,10 +1371,21 @@
             </a:rPr>
             <a:t>衡量租金超過居民合理居住負擔程度的一種測算指標</a:t>
           </a:r>
-          <a:endParaRPr lang="zh-TW" altLang="en-US" sz="1200">
+          <a:endParaRPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0">
+            <a:effectLst/>
             <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
             <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            <a:cs typeface="+mn-cs"/>
           </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="zh-TW" altLang="en-US" sz="1200">
+              <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+              <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+            </a:rPr>
+            <a:t>*租屋痛苦指數越高代表負擔越大</a:t>
+          </a:r>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -1639,7 +1693,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>

--- a/research-paper/data source/租屋痛苦指數.xlsx
+++ b/research-paper/data source/租屋痛苦指數.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\桌面\Goldhouse\research-paper\data source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F8296-4629-4F06-88F9-524FA30E1C98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8866C562-5CDD-4295-8D17-1D0DCE765EEB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{24559ADC-AFC1-4B83-BC97-1AF1C617F3C9}"/>
   </bookViews>
@@ -1692,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9493211-2072-4196-901B-B29B3CE2B1AC}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
